--- a/Istiqlal/Sekolah/SMA/Tahfidz 2022/Book1.xlsx
+++ b/Istiqlal/Sekolah/SMA/Tahfidz 2022/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVER ISTIQLAL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMA\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1417A250-FD54-4FB8-9E49-ADB91B7975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B83D3E-3680-45E7-AB4D-A58D51A5435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8071FAB6-36C7-4278-B93F-807E66141F96}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>No.</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Ammar Muhammad Farhan</t>
+  </si>
+  <si>
+    <t>Zahrifa Saumi Rahmadhanti</t>
+  </si>
+  <si>
+    <t>Hafidhah Zalfa Febriyanti</t>
+  </si>
+  <si>
+    <t>Nabilah Choirunnisa</t>
   </si>
 </sst>
 </file>
@@ -583,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E00961-A7BE-401A-A777-B6120BE7760E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +911,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>90</v>
+      </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
@@ -909,42 +930,90 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
       <c r="K17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>96</v>
+      </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
       <c r="K19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
       <c r="K20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>52</v>
       </c>
